--- a/wars/smartPark-web/src/main/webapp/exceltemplate/template.xlsx
+++ b/wars/smartPark-web/src/main/webapp/exceltemplate/template.xlsx
@@ -569,7 +569,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C1:C1048576"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.25" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
